--- a/Candidacy-Streamlit-Repo/TRIO-figs/Summary_Iter-SMOTE-bins-pkls.xlsx
+++ b/Candidacy-Streamlit-Repo/TRIO-figs/Summary_Iter-SMOTE-bins-pkls.xlsx
@@ -468,37 +468,37 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7807201843322684</v>
+        <v>0.7773884975008761</v>
       </c>
       <c r="D2">
-        <v>0.02915899169316229</v>
+        <v>0.0007260925199749644</v>
       </c>
       <c r="E2">
-        <v>0.8905821796682194</v>
+        <v>0.8885346645535778</v>
       </c>
       <c r="F2">
-        <v>0.02597628146094711</v>
+        <v>0.002390927756520157</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0.8170828250834112</v>
+        <v>0.8236888892633849</v>
       </c>
       <c r="I2">
-        <v>0.7597949308171403</v>
+        <v>0.7411797381695893</v>
       </c>
       <c r="J2">
-        <v>0.8672471970742397</v>
+        <v>0.8573066785335296</v>
       </c>
       <c r="K2">
-        <v>0.8170828250834112</v>
+        <v>0.8236888892633849</v>
       </c>
       <c r="L2">
-        <v>0.001809452063146518</v>
+        <v>0.006523682463426874</v>
       </c>
       <c r="M2">
-        <v>0.001611949980197959</v>
+        <v>0.02148163360375743</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,37 +509,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.7654344495931185</v>
+        <v>0.7703611488804186</v>
       </c>
       <c r="D3">
-        <v>0.03122285977457984</v>
+        <v>0.02897237530827558</v>
       </c>
       <c r="E3">
-        <v>0.8830840622607531</v>
+        <v>0.8758735669091391</v>
       </c>
       <c r="F3">
-        <v>0.02633614169593945</v>
+        <v>0.01590424578450865</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0.8214610439803997</v>
+        <v>0.8273395237533494</v>
       </c>
       <c r="I3">
-        <v>0.7167880227690251</v>
+        <v>0.7210920610136921</v>
       </c>
       <c r="J3">
-        <v>0.8458792064961536</v>
+        <v>0.8496104282293624</v>
       </c>
       <c r="K3">
-        <v>0.8214610439803997</v>
+        <v>0.8273395237533494</v>
       </c>
       <c r="L3">
-        <v>0.001937524748144709</v>
+        <v>0.2603064644281642</v>
       </c>
       <c r="M3">
-        <v>0.001634280993955337</v>
+        <v>0.1428939790235097</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7588358308550635</v>
+        <v>0.7475091969734253</v>
       </c>
       <c r="D4">
-        <v>0.03542463794863411</v>
+        <v>0.02177414408936636</v>
       </c>
       <c r="E4">
-        <v>0.8776157476940086</v>
+        <v>0.848990239391419</v>
       </c>
       <c r="F4">
-        <v>0.03375012765970582</v>
+        <v>0.006066337744464642</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.8165577797611658</v>
+        <v>0.8243924737525068</v>
       </c>
       <c r="I4">
-        <v>0.7093911086715324</v>
+        <v>0.6715484626471295</v>
       </c>
       <c r="J4">
-        <v>0.8413194506977385</v>
+        <v>0.8259529787719699</v>
       </c>
       <c r="K4">
-        <v>0.8165577797611658</v>
+        <v>0.8243924737525068</v>
       </c>
       <c r="L4">
-        <v>0.002198264771871571</v>
+        <v>0.195632922863366</v>
       </c>
       <c r="M4">
-        <v>0.002094353562288427</v>
+        <v>0.05450388218040458</v>
       </c>
     </row>
   </sheetData>
